--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFB7F2D-7E19-4A35-9192-F217030FCBA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E920544-5CCD-4240-8389-B846C497D86D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="53">
   <si>
     <t>leetcode-53：最大子序和</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,116 @@
   </si>
   <si>
     <t>算法：迭代反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-103. 二叉树的锯齿形层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双端队列遍历，从左到右遍历，结点依次插入队列的尾端，从右到左遍历，结点依次插入队列的头端。注意右节点在后面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-215. 数组中的第K个最大元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.从大到小排序，返回nums[k-1]，2.二分查找，注意进入排序定位的条件是left&lt;=right，定位到i==k之后返回nums[i]，否则二分，注意传入的参数都是索引。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-39. 组合总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>回溯，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getRes(int I,int target,vector&lt;int&gt; combine) 为当前的索引是i，目标是target，组合是combine。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Base case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是target==0、target&lt;0，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">是[I,size()-1] </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法：归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果start&gt;=end，不需要排序，直接返回。排序左半边--&gt;排序右半边--&gt;合并。
+合并方式:
+while(start1&lt;=end1&amp;&amp;start2&lt;=end2) reg[t++]=nums[start1]&gt;nums[start2]?nums[start1++]:nums[start2++];
+while(start1&lt;=end1) reg[t++]=nums[start1++];
+while(start2&lt;=end2) reg[t++]=nums[start2++];
+while(start&lt;=end) nums[start]=reg[start++];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法：堆排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化堆（从最后一个父节点调整）、后置头节点调整堆（不断缩小堆的规模）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +319,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -235,10 +353,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -660,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -668,7 +789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -676,7 +797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -684,15 +805,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -700,57 +824,72 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>

--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E920544-5CCD-4240-8389-B846C497D86D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6CD0C5-94B8-47DF-84A6-1B297E102A85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="65">
   <si>
     <t>leetcode-53：最大子序和</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,55 @@
   </si>
   <si>
     <t>初始化堆（从最后一个父节点调整）、后置头节点调整堆（不断缩小堆的规模）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法：k路归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust（与父节点比较）、creatls（创建败者）、kmerge（不断取出最小的节点ls[0]）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-160. 相交链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表（存储A的节点，遍历B，看看B中有没有节点在memo里）
+双指针（指针1指向headA，指针2指向headB，如果空就到另外一个的头节点，否则往后走）while(head1!=head2) 最后返回head1。理论：两个指针走的路程是一样的，如果链表相交的话，会在第一个节点相交，如果不相交的话，同时走到空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-面试题 03.03. 堆盘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector+stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-22. 括号生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRes(int left,int right,int n,string s)：表示朝向左的括号右left个，朝向右的括号右right个，两者各自最多右n个，当前的状态是s。结束条件是右括号比左括号多，两种括号超过了n，两种括号都等于n（这个可以将s加入到res中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-120. 三角形最小路径和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划：dp[I]j]表示到达trigles[i][j]走的最小步数，状态转移是dp[i][j]=min(dp[i-1][j-1],dp[i-1][j])+trigles[i][j]。要考虑边界的两个条件，左边界只能从j过去，右边界只能从j-1过去。状态压缩的话j以来j-1，故需要将j倒序遍历。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-507. 完美数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美数num，res初始值是1，从2到sqrt(num)遍历记录其因子和，然后与num比较，并且res!=1。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,32 +915,50 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">

--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6CD0C5-94B8-47DF-84A6-1B297E102A85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDF593E-7937-451C-B42A-7A1D71ED9B33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="67">
   <si>
     <t>leetcode-53：最大子序和</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,14 @@
   </si>
   <si>
     <t>完美数num，res初始值是1，从2到sqrt(num)遍历记录其因子和，然后与num比较，并且res!=1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-15.三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个数不重复，双指针去找target=-nums[i]的二元组，找到了移动+去重。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,82 +969,85 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>

--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDF593E-7937-451C-B42A-7A1D71ED9B33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE62CBF-EE33-4E3B-AAA6-C663C5DBCC3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="88">
   <si>
     <t>leetcode-53：最大子序和</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,90 @@
   </si>
   <si>
     <t>第一个数不重复，双指针去找target=-nums[i]的二元组，找到了移动+去重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-59. 螺旋矩阵 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋矩阵，定义方向数组，出现边界就改变方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-剑指 Offer 22. 链表中倒数第k个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表中倒数第k个数，快指针先走k个，快慢指针一起走，最后快指针到头，慢指针定位的就是倒数第k个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-74. 搜索二维矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-97. 交错字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向数组，到边界或被赋值了，改变方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找，mid确定I,j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划，dp[I][j]是s1的[0,i-1]和s2的[0,j-1]能否组合成s3的[0,i+j-1]，和dp[i-1][j]、dp[i][j-1]有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-63. 不同路径 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划，dp[i][j]代表到达[i][j]位置的路径数，和dp[i-1][j]、dp[i][j-1]有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-70. 爬楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 46. 把数字翻译成字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在[0，25]的区间内，可以表示一个字符，如果s[i-1]不等于0并且i-1和i组合成的数字在这个区间，dp[i]=dp[i-1]+dp[i-2]；否则，dp[i]=dp[i-1]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划：dp[i]表示爬到第i层楼梯所走过的路径数，依赖于dp[i-1]和dp[i-2]，即最后一次爬的时一层还是二层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 61. 扑克牌中的顺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能不能组合成5张顺子，如果同时满足1.除大小王之外没有重复元素，2.最大值-最小值&lt;5，就能组合成顺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-415. 字符串相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建res字符串，复制到里面一个，逐位相加，每逢10进1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-43. 字符串相乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立vector，长度是m+n，I,j对应的结果位是i+j、i+j+1，在得到某一位的结果是，就往前逢10进位，最后定位到res第一个不为0的地方，存到str中，如果str的长度为0，返回"0"，否则返回str</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,14 +784,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.875" customWidth="1"/>
-    <col min="2" max="2" width="178.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="153" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -979,57 +1063,90 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -2334,7 +2451,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A36" r:id="rId1" tooltip="编辑" display="https://editor.csdn.net/md/?articleId=116206242" xr:uid="{296ECFA6-22A2-4FCB-A8DB-7E9D4BD8F10C}"/>
+    <hyperlink ref="A37" r:id="rId2" tooltip="编辑" display="https://editor.csdn.net/md/?articleId=116206438" xr:uid="{D2F10E5F-4169-41D1-B6C3-9528A818B0D1}"/>
+    <hyperlink ref="A38" r:id="rId3" tooltip="编辑" display="https://editor.csdn.net/md/?articleId=116208771" xr:uid="{FFF82994-4C5E-4934-B713-18754065507B}"/>
+    <hyperlink ref="A40" r:id="rId4" tooltip="编辑" display="https://editor.csdn.net/md/?articleId=116209863" xr:uid="{EDC989C5-C001-402D-A1C6-9C4B90B3DB06}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE62CBF-EE33-4E3B-AAA6-C663C5DBCC3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE79C6B-A704-4A0D-881C-770B466AC343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="108">
   <si>
     <t>leetcode-53：最大子序和</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,99 @@
   </si>
   <si>
     <t>建立vector，长度是m+n，I,j对应的结果位是i+j、i+j+1，在得到某一位的结果是，就往前逢10进位，最后定位到res第一个不为0的地方，存到str中，如果str的长度为0，返回"0"，否则返回str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-165. 比较版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-16. 最接近的三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯，优先判断是否组合数为3，再判断是否要越界。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-400. 第N个数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先找index_count，再找num=start+(n-1)/digit，再找(n-1)%digit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-1095. 山脉数组中查找目标值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找找到峰顶，先找峰左边的左边界，找到就返回，找不到就找右边的左边界，找到就返回，找不到就返回-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-旋转图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先转置，在对称交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-重排链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中点拆分、逆序、合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-矩阵中最长的路径长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有节点进行深度搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-数据流中第k大的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持小根堆的大小是k，每次返回小根堆的堆顶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-剑指 Offer 51. 数组中的逆序对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并、统计前面比后面大的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-309. 最佳买卖股票时机含冷冻期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>带有冷冻期的股票，判断i==1的时候，买的是i==0天还是i==1天的股票。然后买股票就是前一天保持和i-2天从没有到买入，注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买入的时候才算是一次交易</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,100 +1244,130 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>

--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE79C6B-A704-4A0D-881C-770B466AC343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69C2679-7840-489A-86E9-DF8294F00CDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="114">
   <si>
     <t>leetcode-53：最大子序和</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一个数不重复，双指针去找target=-nums[i]的二元组，找到了移动+去重。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>leetcode-59. 螺旋矩阵 II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,6 +532,34 @@
       </rPr>
       <t>买入的时候才算是一次交易</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-98. 验证二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中序遍历，记录pre和cur，比较，如果不递增就返回false，最后返回left&amp;&amp;right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-83. 删除排序链表中的重复元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针，不相同就连起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 48. 最长不含重复字符的子字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针实现滑动窗口，保证窗口内的元素是不重复的，记录每个窗口的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个数不重复，双指针去找target=-nums[i]的二元组，找到了移动+去重。注意1：存储的是数，不是索引。注意2：缩小的时候要保证left&lt;right</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,190 +1175,199 @@
         <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">

--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69C2679-7840-489A-86E9-DF8294F00CDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C8B7B-4BB4-4E7F-81B9-23F6BEFD81EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="116">
   <si>
     <t>leetcode-53：最大子序和</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +560,14 @@
   </si>
   <si>
     <t>第一个数不重复，双指针去找target=-nums[i]的二元组，找到了移动+去重。注意1：存储的是数，不是索引。注意2：缩小的时候要保证left&lt;right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-124. 二叉树中的最大路径和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义函数getRes(root)为以root为根结点的最大路径和，可以得到所有结点最大路径和，记录并比较即可。注意，最后返回的时候只能沿着一边。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1380,10 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">

--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C8B7B-4BB4-4E7F-81B9-23F6BEFD81EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0E5301-8CB8-4C20-9B9D-4411694C9361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="118">
   <si>
     <t>leetcode-53：最大子序和</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,6 +568,14 @@
   </si>
   <si>
     <t>定义函数getRes(root)为以root为根结点的最大路径和，可以得到所有结点最大路径和，记录并比较即可。注意，最后返回的时候只能沿着一边。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 04. 二维数组中的查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一行递增，每一列递增，找target。从右上角开始查找，如果当前值等于target直接返回true；如果当前值大于target，往前一列；如果当前值小于target，往下一行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -1388,7 +1396,10 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">

--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0E5301-8CB8-4C20-9B9D-4411694C9361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF9E97-B24C-4277-B23E-4FE3A078580E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="118">
-  <si>
-    <t>leetcode-53：最大子序和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="130">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +79,6 @@
   </si>
   <si>
     <t>使用两个栈，一个主栈压元素，一个辅助压min(val,st2.top())</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动窗口（专门处理字串、子数组的情况）、动态规划（dp[i]表示以nums[i]结尾的最长子序和）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -578,12 +570,79 @@
     <t>每一行递增，每一列递增，找target。从右上角开始查找，如果当前值等于target直接返回true；如果当前值大于target，往前一列；如果当前值小于target，往下一行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>剑指 Offer 05. 替换空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 06. 从尾到头打印链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 07. 重建二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 09. 用两个栈实现队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 10- I. 斐波那契数列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 10- II. 青蛙跳台阶问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 11. 旋转数组的最小数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找，缩小查找范围while(left&lt;right)left=mid+1,right=mid,right-=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 12. 矩阵中的路径</t>
+  </si>
+  <si>
+    <t>每个位置去DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-76. 最小覆盖子串</t>
+  </si>
+  <si>
+    <t>双指针+哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>滑动窗口（专门处理字串、子数组的情况）、动态规划（dp[i]表示以nums[i]结尾的最长子序和）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意：和最长递增子序列区别起来。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-53：最大连续子数组和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,13 +665,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF474747"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -624,10 +703,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -635,9 +715,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,162 +1017,162 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1092,1539 +1180,1549 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2634,8 +2732,17 @@
     <hyperlink ref="A37" r:id="rId2" tooltip="编辑" display="https://editor.csdn.net/md/?articleId=116206438" xr:uid="{D2F10E5F-4169-41D1-B6C3-9528A818B0D1}"/>
     <hyperlink ref="A38" r:id="rId3" tooltip="编辑" display="https://editor.csdn.net/md/?articleId=116208771" xr:uid="{FFF82994-4C5E-4934-B713-18754065507B}"/>
     <hyperlink ref="A40" r:id="rId4" tooltip="编辑" display="https://editor.csdn.net/md/?articleId=116209863" xr:uid="{EDC989C5-C001-402D-A1C6-9C4B90B3DB06}"/>
+    <hyperlink ref="A60" r:id="rId5" display="https://leetcode-cn.com/problems/ti-huan-kong-ge-lcof/" xr:uid="{7CA7DA54-DCFF-4B15-B5EF-93A967115429}"/>
+    <hyperlink ref="A61" r:id="rId6" display="https://leetcode-cn.com/problems/cong-wei-dao-tou-da-yin-lian-biao-lcof/" xr:uid="{5804C5AE-FCC6-4724-A5FB-EEA09C6D5884}"/>
+    <hyperlink ref="A62" r:id="rId7" display="https://leetcode-cn.com/problems/zhong-jian-er-cha-shu-lcof/" xr:uid="{41836F26-0BB5-461D-BF8E-4CF6F9FABDBE}"/>
+    <hyperlink ref="A63" r:id="rId8" display="https://leetcode-cn.com/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof/" xr:uid="{D3470310-2FA5-4F13-86E2-E98532B89A8A}"/>
+    <hyperlink ref="A64" r:id="rId9" display="https://leetcode-cn.com/problems/fei-bo-na-qi-shu-lie-lcof/" xr:uid="{6386625C-402C-43B3-B0FF-FA6696247154}"/>
+    <hyperlink ref="A65" r:id="rId10" display="https://leetcode-cn.com/problems/qing-wa-tiao-tai-jie-wen-ti-lcof/" xr:uid="{E9C43AE0-CB6B-4402-B756-AE647DB0E984}"/>
+    <hyperlink ref="A66" r:id="rId11" display="https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof/" xr:uid="{77B3D6B8-6304-463B-80DF-242B91B366BA}"/>
+    <hyperlink ref="A67" r:id="rId12" display="https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof/" xr:uid="{9B161351-7DB6-4C57-A9E6-9CC3590F72C4}"/>
+    <hyperlink ref="A68" r:id="rId13" display="https://leetcode-cn.com/problems/ju-zhen-zhong-de-lu-jing-lcof/" xr:uid="{3276D8BC-EC17-4B4E-9B31-CD9C1DF8D018}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
 </worksheet>
 </file>
--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF9E97-B24C-4277-B23E-4FE3A078580E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD63A4C6-E9E5-41BC-AE24-A11377B6F4D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="146">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,14 +603,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑指 Offer 12. 矩阵中的路径</t>
-  </si>
-  <si>
     <t>每个位置去DFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leetcode-76. 最小覆盖子串</t>
   </si>
   <si>
     <t>双指针+哈希表</t>
@@ -635,6 +629,71 @@
   </si>
   <si>
     <t>leetcode-53：最大连续子数组和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 12. 矩阵中的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-76. 最小覆盖子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划或者看n&gt;=5的时候有多少个3，最后res*=n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 14- I. 剪绳子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心-看n里面最多有多少个3，然后res*5，long存储或者用循环求余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 14. 剪绳子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 15. 二进制中1的个数</t>
+  </si>
+  <si>
+    <t>n&amp;(n-1)去掉n的二进制的最后面的一个1，查看n中1的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 17. 打印从1到最大的n位数</t>
+  </si>
+  <si>
+    <t>得到最大数，依次赋值数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 21. 调整数组顺序使奇数位于偶数前面</t>
+  </si>
+  <si>
+    <t>类似于二分查找的挖坑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 29. 顺时针打印矩阵</t>
+  </si>
+  <si>
+    <t>#剑指 Offer 26 树的子结构</t>
+  </si>
+  <si>
+    <t>剑指 Offer 30. 包含min函数的栈</t>
+  </si>
+  <si>
+    <t>最小栈，两个栈实现，一个data，一个m。Data一直push，mpushmin(min.top(),x);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 62. 圆圈中最后剩下的数字</t>
+  </si>
+  <si>
+    <t>约瑟夫环，当前下标前面不上m个位置对i取模。i表示人数，从2到n。Res表示当前下标，每次前面补m个位置，即(res+m)，那么补完之后的位置就是对n进行取模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,9 +733,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF474747"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -707,7 +766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -722,6 +781,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1005,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1025,10 +1085,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1535,70 +1595,89 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>2</v>
+        <v>133</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>2</v>
+      <c r="A72" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>2</v>
+      <c r="A73" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>2</v>
+      <c r="A74" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>2</v>
+      <c r="A75" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>2</v>
+      <c r="A76" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>2</v>
+      <c r="A77" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A78" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -2741,8 +2820,14 @@
     <hyperlink ref="A66" r:id="rId11" display="https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof/" xr:uid="{77B3D6B8-6304-463B-80DF-242B91B366BA}"/>
     <hyperlink ref="A67" r:id="rId12" display="https://leetcode-cn.com/problems/xuan-zhuan-shu-zu-de-zui-xiao-shu-zi-lcof/" xr:uid="{9B161351-7DB6-4C57-A9E6-9CC3590F72C4}"/>
     <hyperlink ref="A68" r:id="rId13" display="https://leetcode-cn.com/problems/ju-zhen-zhong-de-lu-jing-lcof/" xr:uid="{3276D8BC-EC17-4B4E-9B31-CD9C1DF8D018}"/>
+    <hyperlink ref="A72" r:id="rId14" display="https://leetcode-cn.com/problems/er-jin-zhi-zhong-1de-ge-shu-lcof/" xr:uid="{6D1BC79D-7A37-4855-8113-36ABB163D01C}"/>
+    <hyperlink ref="A73" r:id="rId15" display="https://leetcode-cn.com/problems/da-yin-cong-1dao-zui-da-de-nwei-shu-lcof/" xr:uid="{2F2F7FF4-527D-4ED0-9638-C49AFA0A3FAE}"/>
+    <hyperlink ref="A74" r:id="rId16" display="https://leetcode-cn.com/problems/diao-zheng-shu-zu-shun-xu-shi-qi-shu-wei-yu-ou-shu-qian-mian-lcof/" xr:uid="{8B588015-3E1E-485A-B2E5-E8DE3336988B}"/>
+    <hyperlink ref="A76" r:id="rId17" display="https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof/" xr:uid="{488604DA-B185-457D-A636-A645D15162E8}"/>
+    <hyperlink ref="A77" r:id="rId18" display="https://leetcode-cn.com/problems/bao-han-minhan-shu-de-zhan-lcof/" xr:uid="{F95A4829-204F-40A0-A1A4-E6A29810CA77}"/>
+    <hyperlink ref="A78" r:id="rId19" tooltip="编辑" display="https://editor.csdn.net/md/?articleId=116765869" xr:uid="{BF1661D3-BA56-460A-96BD-89B31257C425}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
 </worksheet>
 </file>
--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD63A4C6-E9E5-41BC-AE24-A11377B6F4D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC84BE6-7E4D-42E4-9F1C-2328F4C3B391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="155">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,10 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态规划，dp[I][j]是s1的[0,i-1]和s2的[0,j-1]能否组合成s3的[0,i+j-1]，和dp[i-1][j]、dp[i][j-1]有关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>leetcode-63. 不同路径 II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,44 +652,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>n&amp;(n-1)去掉n的二进制的最后面的一个1，查看n中1的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到最大数，依次赋值数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于二分查找的挖坑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小栈，两个栈实现，一个data，一个m。Data一直push，mpushmin(min.top(),x);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约瑟夫环，当前下标前面不上m个位置对i取模。i表示人数，从2到n。Res表示当前下标，每次前面补m个位置，即(res+m)，那么补完之后的位置就是对n进行取模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机算法之水塘抽样算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>剑指 Offer 15. 二进制中1的个数</t>
-  </si>
-  <si>
-    <t>n&amp;(n-1)去掉n的二进制的最后面的一个1，查看n中1的个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>剑指 Offer 17. 打印从1到最大的n位数</t>
-  </si>
-  <si>
-    <t>得到最大数，依次赋值数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>剑指 Offer 21. 调整数组顺序使奇数位于偶数前面</t>
-  </si>
-  <si>
-    <t>类似于二分查找的挖坑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#剑指 Offer 26 树的子结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>剑指 Offer 29. 顺时针打印矩阵</t>
-  </si>
-  <si>
-    <t>#剑指 Offer 26 树的子结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>剑指 Offer 30. 包含min函数的栈</t>
-  </si>
-  <si>
-    <t>最小栈，两个栈实现，一个data，一个m。Data一直push，mpushmin(min.top(),x);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>剑指 Offer 62. 圆圈中最后剩下的数字</t>
-  </si>
-  <si>
-    <t>约瑟夫环，当前下标前面不上m个位置对i取模。i表示人数，从2到n。Res表示当前下标，每次前面补m个位置，即(res+m)，那么补完之后的位置就是对n进行取模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 31. 栈的压入、弹出序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 35. 复杂链表的复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 38. 字符串的排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 39. 数组中出现次数超过一半的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 43. 1～n 整数中 1 出现的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 40. 最小的k个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 44. 数字序列中某一位的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 45. 把数组排成最小的数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划，dp[I][j]是s1的[0,i-1]和s2的[0,j-1]能否组合成s3的[0,i+j-1]，和dp[i-1][j]、dp[i][j-1]有关。If(i&gt;0) dp[i][j]=dp[i-1][j]&amp;&amp;s1[i-1]==s3[i+j-1]；if(j&gt;0) dp[i][j]=dp[i][j]||dp[i][j-1]&amp;&amp;s2[j-1]==s3[i+j-1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +744,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,12 +775,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -766,7 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -777,11 +814,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1065,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,10 +1117,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1339,7 +1371,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1379,344 +1411,346 @@
         <v>69</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -2826,8 +2860,16 @@
     <hyperlink ref="A76" r:id="rId17" display="https://leetcode-cn.com/problems/shun-shi-zhen-da-yin-ju-zhen-lcof/" xr:uid="{488604DA-B185-457D-A636-A645D15162E8}"/>
     <hyperlink ref="A77" r:id="rId18" display="https://leetcode-cn.com/problems/bao-han-minhan-shu-de-zhan-lcof/" xr:uid="{F95A4829-204F-40A0-A1A4-E6A29810CA77}"/>
     <hyperlink ref="A78" r:id="rId19" tooltip="编辑" display="https://editor.csdn.net/md/?articleId=116765869" xr:uid="{BF1661D3-BA56-460A-96BD-89B31257C425}"/>
+    <hyperlink ref="A80" r:id="rId20" display="https://blog.csdn.net/woaiwojia6699/article/details/116794557" xr:uid="{999AADC9-B88D-4BFF-A7FD-D570E24AA80C}"/>
+    <hyperlink ref="A81" r:id="rId21" display="https://blog.csdn.net/woaiwojia6699/article/details/116795266" xr:uid="{152B61E1-A32D-4EA0-AF86-579158FCE800}"/>
+    <hyperlink ref="A82" r:id="rId22" display="https://blog.csdn.net/woaiwojia6699/article/details/116795988" xr:uid="{021A83B4-A83E-4D29-93E7-7DFD3C351891}"/>
+    <hyperlink ref="A83" r:id="rId23" display="https://blog.csdn.net/woaiwojia6699/article/details/116796759" xr:uid="{EDCB9EA7-3319-48C5-BB58-2B442BCC920D}"/>
+    <hyperlink ref="A84" r:id="rId24" display="https://blog.csdn.net/woaiwojia6699/article/details/116798352" xr:uid="{E0DA5644-1774-41A9-9B85-E520208A7A21}"/>
+    <hyperlink ref="A85" r:id="rId25" display="https://blog.csdn.net/woaiwojia6699/article/details/116803840" xr:uid="{4A7DDC87-E555-439B-AB6E-9E86CF717F5C}"/>
+    <hyperlink ref="A86" r:id="rId26" display="https://blog.csdn.net/woaiwojia6699/article/details/116804251" xr:uid="{CC342970-B0AB-483F-83C6-6BB9990B1759}"/>
+    <hyperlink ref="A87" r:id="rId27" display="https://blog.csdn.net/woaiwojia6699/article/details/116805218" xr:uid="{01B81B14-37AD-4165-8A0A-39E7A96EBC05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId28"/>
 </worksheet>
 </file>
--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC84BE6-7E4D-42E4-9F1C-2328F4C3B391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BE0DEA-D2AD-4DC5-BDF8-12C4EBA723D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="163">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,38 @@
   </si>
   <si>
     <t>动态规划，dp[I][j]是s1的[0,i-1]和s2的[0,j-1]能否组合成s3的[0,i+j-1]，和dp[i-1][j]、dp[i][j-1]有关。If(i&gt;0) dp[i][j]=dp[i-1][j]&amp;&amp;s1[i-1]==s3[i+j-1]；if(j&gt;0) dp[i][j]=dp[i][j]||dp[i][j-1]&amp;&amp;s2[j-1]==s3[i+j-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客-设计LRU缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向链表+哈希表。注意：断开的时候是断开两条线，插入的时候是设置四条线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客-设计LFU缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客-二叉树的序列化和反序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 49. 丑数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有2，3，5因子组成的数是丑数，寻找第n个丑数。策略：a、b、c从1开始，分别dp[a]*2，dp[b]*3，dp[c]*5，找最小的那个数，（重复或者不重复）最小那个数对应的索引往后移动一位注：1是丑数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用前序遍历，每个为代表的是val+","，这样可以直接定位到某一位，然后按照前序遍历的顺序反序列化。注：考虑string类型和char*类型之间的转换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和LRU情况类似，使用频率链表（单向）+时间链表（双向）+哈希表。要注意操作某个结点的时候要提前把那个结点的连接给断掉。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,13 +1129,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.875" customWidth="1"/>
+    <col min="1" max="1" width="41.25" customWidth="1"/>
     <col min="2" max="2" width="153" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1718,82 +1750,89 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>2</v>
       </c>

--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BE0DEA-D2AD-4DC5-BDF8-12C4EBA723D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A660CE86-A4DF-41BB-B04A-E29A1514C2FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="248">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,10 +752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛客-二叉树的序列化和反序列化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剑指 Offer 49. 丑数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,11 +760,311 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用前序遍历，每个为代表的是val+","，这样可以直接定位到某一位，然后按照前序遍历的顺序反序列化。注：考虑string类型和char*类型之间的转换。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>和LRU情况类似，使用频率链表（单向）+时间链表（双向）+哈希表。要注意操作某个结点的时候要提前把那个结点的连接给断掉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ61-牛客-二叉树的序列化和反序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ11</t>
+  </si>
+  <si>
+    <t>JZ12</t>
+  </si>
+  <si>
+    <t>JZ13</t>
+  </si>
+  <si>
+    <t>JZ14</t>
+  </si>
+  <si>
+    <t>JZ15</t>
+  </si>
+  <si>
+    <t>JZ16</t>
+  </si>
+  <si>
+    <t>JZ17</t>
+  </si>
+  <si>
+    <t>JZ18</t>
+  </si>
+  <si>
+    <t>JZ19</t>
+  </si>
+  <si>
+    <t>JZ20</t>
+  </si>
+  <si>
+    <t>JZ21</t>
+  </si>
+  <si>
+    <t>JZ22</t>
+  </si>
+  <si>
+    <t>JZ23</t>
+  </si>
+  <si>
+    <t>JZ24</t>
+  </si>
+  <si>
+    <t>JZ25</t>
+  </si>
+  <si>
+    <t>JZ26</t>
+  </si>
+  <si>
+    <t>JZ27</t>
+  </si>
+  <si>
+    <t>JZ28</t>
+  </si>
+  <si>
+    <t>JZ29</t>
+  </si>
+  <si>
+    <t>JZ30</t>
+  </si>
+  <si>
+    <t>JZ31</t>
+  </si>
+  <si>
+    <t>JZ32</t>
+  </si>
+  <si>
+    <t>JZ33</t>
+  </si>
+  <si>
+    <t>JZ34</t>
+  </si>
+  <si>
+    <t>JZ35</t>
+  </si>
+  <si>
+    <t>JZ36</t>
+  </si>
+  <si>
+    <t>JZ37</t>
+  </si>
+  <si>
+    <t>JZ38</t>
+  </si>
+  <si>
+    <t>JZ39</t>
+  </si>
+  <si>
+    <t>JZ40</t>
+  </si>
+  <si>
+    <t>JZ41</t>
+  </si>
+  <si>
+    <t>JZ42</t>
+  </si>
+  <si>
+    <t>JZ43</t>
+  </si>
+  <si>
+    <t>JZ44</t>
+  </si>
+  <si>
+    <t>JZ45</t>
+  </si>
+  <si>
+    <t>JZ46</t>
+  </si>
+  <si>
+    <t>JZ47</t>
+  </si>
+  <si>
+    <t>JZ48</t>
+  </si>
+  <si>
+    <t>JZ49</t>
+  </si>
+  <si>
+    <t>JZ50</t>
+  </si>
+  <si>
+    <t>JZ51</t>
+  </si>
+  <si>
+    <t>JZ52</t>
+  </si>
+  <si>
+    <t>JZ53</t>
+  </si>
+  <si>
+    <t>JZ54</t>
+  </si>
+  <si>
+    <t>JZ55</t>
+  </si>
+  <si>
+    <t>JZ56</t>
+  </si>
+  <si>
+    <t>JZ57</t>
+  </si>
+  <si>
+    <t>JZ58</t>
+  </si>
+  <si>
+    <t>JZ59</t>
+  </si>
+  <si>
+    <t>JZ60</t>
+  </si>
+  <si>
+    <t>JZ62</t>
+  </si>
+  <si>
+    <t>JZ63</t>
+  </si>
+  <si>
+    <t>JZ64</t>
+  </si>
+  <si>
+    <t>JZ65</t>
+  </si>
+  <si>
+    <t>JZ66</t>
+  </si>
+  <si>
+    <t>JZ67</t>
+  </si>
+  <si>
+    <t>使用层次遍历，遍历时存储有父节点的NULL，恢复时存储父节点下的NULL。数据结构：queue、string、vector、char*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ2-替换空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ1-二维数组的查找。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：行递增、列递增。</t>
+  </si>
+  <si>
+    <t>描述：替换所有的空格为"%20"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ3-从尾到头打印链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：使用vector倒序返回链表的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ4-重建二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：使用前序遍历和中序遍历建立二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路：根据pre[l1]找到vin[index]，左子树的数目left=index-l1;右子树的数目为r2-index；左子树为build(l1+1,l1+left,l2,index);右子树为build(l1+left+1,r1,index+1,r2)；终止条件：l1&gt;r1 || l2&gt;r2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ5-用两个栈实现队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：使用两个栈实现队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路：一直向主栈push数据；pop的时候，如果辅助栈没有元素，将主栈的元素依次放入辅助栈中，然后pop辅助栈的元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ6-旋转数组的最小数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ7-斐波那契数列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：f(n)=f(n-1)+f(n-2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">思路：mid和右边界比较，如果大于右边界，则舍去左边的所有，如果小于右边界，舍去右边的一个数。注意：while(left&lt;right)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left=mid+1，right-=1；return right;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路：使用vector正序放入，倒序返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路：s.replace(I,1,"%20");//从i个位置开始的后一个元素，替换为%20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路：从右上角开始遍历，根据情况走不同的方向。核心：两个不同的选择。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路：非递归，使用寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ8-跳台阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路：最后一次跳的方式是：跳1个台阶 or 跳两个台阶，两者相加就是这次跳的数量。dp[i]=dp[i-1]+dp[i-2];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ9-变态跳台阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：dp[i-1]=dp[i-2]+..+dp[1];dp[i]=dp[i-1]+dp[i-1]+…+dp[0]=2*dp[i-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路：返回pow(2,number-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JZ10-矩形覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：2*(n)的矩形由n个2*1的矩形覆盖，可以有几种覆盖方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路：dp[i]=dp[i-1]+dp[i-2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：旋转数组找最小的那个数（起始点）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +1131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -845,6 +1141,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1127,1755 +1426,2051 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C304"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.25" customWidth="1"/>
-    <col min="2" max="2" width="153" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="59.25" customWidth="1"/>
+    <col min="3" max="3" width="153" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>158</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>225</v>
+      </c>
+      <c r="B95" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>228</v>
+      </c>
+      <c r="B96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>241</v>
+      </c>
+      <c r="B100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>244</v>
+      </c>
+      <c r="B101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>2</v>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>2</v>
+      <c r="A113" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>2</v>
+      <c r="A114" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>2</v>
+      <c r="A115" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>2</v>
+      <c r="A116" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>2</v>
+      <c r="A117" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>2</v>
+      <c r="A118" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>2</v>
+      <c r="A119" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>2</v>
+      <c r="A120" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>2</v>
+      <c r="A121" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>2</v>
+      <c r="A122" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>2</v>
+      <c r="A123" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>2</v>
+      <c r="A124" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>2</v>
+      <c r="A125" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>2</v>
+      <c r="A126" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>2</v>
+      <c r="A127" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>2</v>
+      <c r="A128" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>2</v>
+      <c r="A129" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>2</v>
+      <c r="A130" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>2</v>
+      <c r="A131" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>2</v>
+      <c r="A132" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>2</v>
+      <c r="A133" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>2</v>
+      <c r="A134" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>2</v>
+      <c r="A135" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>2</v>
+      <c r="A136" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>2</v>
+      <c r="A137" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>2</v>
+      <c r="A138" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>2</v>
+      <c r="A139" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>2</v>
+      <c r="A140" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>2</v>
+      <c r="A141" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>2</v>
+      <c r="A142" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>2</v>
+      <c r="A143" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B227" s="1"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B248" s="1"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B249" s="1"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B250" s="1"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B251" s="1"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B252" s="1"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B253" s="1"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B254" s="1"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B255" s="1"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B256" s="1"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257" s="1"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258" s="1"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259" s="1"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B260" s="1"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261" s="1"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262" s="1"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B263" s="1"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B264" s="1"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265" s="1"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B266" s="1"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B267" s="1"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B268" s="1"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B269" s="1"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B270" s="1"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B271" s="1"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B272" s="1"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B273" s="1"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B274" s="1"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B275" s="1"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B276" s="1"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B277" s="1"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B278" s="1"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B279" s="1"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B280" s="1"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B281" s="1"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B282" s="1"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B283" s="1"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B284" s="1"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B285" s="1"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B286" s="1"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B287" s="1"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288" s="1"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B289" s="1"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B290" s="1"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B291" s="1"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B292" s="1"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B293" s="1"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B294" s="1"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B295" s="1"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B296" s="1"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B297" s="1"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B298" s="1"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B299" s="1"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B300" s="1"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B301" s="1"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B302" s="1"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B303" s="1"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B304" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A660CE86-A4DF-41BB-B04A-E29A1514C2FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FC684D-C790-4E0F-BCF9-91D7FFCF8632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="251">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1065,6 +1065,18 @@
   </si>
   <si>
     <t>描述：旋转数组找最小的那个数（起始点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-189. 旋转数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面的k个放前面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先全部反转，再反转前[0,k-1]，再反转[k,len-1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1428,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="C142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2598,9 +2610,14 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B159" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">

--- a/03.算法/刷题记录.xlsx
+++ b/03.算法/刷题记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FC684D-C790-4E0F-BCF9-91D7FFCF8632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E546E858-77A8-4115-8C98-0B73A5215FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="254">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1077,6 +1077,18 @@
   </si>
   <si>
     <t>先全部反转，再反转前[0,k-1]，再反转[k,len-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode-543. 二叉树的直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最远两个结点之间的距离，最远路径、最大路径。定义求根节点的长度的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结点看成中点，左右子树的高度相加就是本路径，逐渐更新最大路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,7 +1453,7 @@
   <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2621,9 +2633,14 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B160" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
